--- a/Documentation/Bug Report - Training.xlsx
+++ b/Documentation/Bug Report - Training.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daverol\Desktop\erp_hr\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1833D37D-DFF4-4985-9A40-51C536C5E365}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6643E334-C85E-4B5D-8907-BFC052C479C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="8130" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t xml:space="preserve">Training - Working Day must be showed in the table </t>
   </si>
   <si>
-    <t>Dan Martin Masusi</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>No data show</t>
+  </si>
+  <si>
+    <t>Dan Martin P. Masusi</t>
   </si>
 </sst>
 </file>
@@ -427,22 +427,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -450,14 +434,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -466,9 +446,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -481,6 +458,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -897,7 +897,7 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -908,7 +908,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
@@ -927,7 +927,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="17" t="s">
         <v>29</v>
       </c>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>30</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="19" t="s">
         <v>33</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="19" t="s">
         <v>32</v>
       </c>
@@ -963,47 +963,47 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5"/>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="41" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1032,18 +1032,18 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1052,16 +1052,16 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1070,7 +1070,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1081,16 +1081,16 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
@@ -1099,12 +1099,12 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1128,124 +1128,124 @@
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
     </row>
     <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="32"/>
     </row>
     <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
     </row>
     <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="42"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="32"/>
     </row>
     <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="32"/>
     </row>
     <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="48"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="37"/>
     </row>
     <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="38"/>
     </row>
     <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
     </row>
     <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
     </row>
     <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
     </row>
     <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
     </row>
     <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="49"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="38"/>
     </row>
     <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="49"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="38"/>
     </row>
     <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="49"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="38"/>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="31"/>
     </row>
     <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="49"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="38"/>
     </row>
     <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="49"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="38"/>
     </row>
     <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="12"/>
@@ -4117,16 +4117,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
